--- a/Predicting Weight Strategy.xlsx
+++ b/Predicting Weight Strategy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
   <si>
     <t>Issue: Drinks</t>
   </si>
@@ -238,6 +238,78 @@
   </si>
   <si>
     <t>Count: 10</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Beer Only</t>
+  </si>
+  <si>
+    <t>Handmade Cocktails</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>Chips and Nuts</t>
+  </si>
+  <si>
+    <t>Finger-Food</t>
+  </si>
+  <si>
+    <t>Handmade Food</t>
+  </si>
+  <si>
+    <t>Catering</t>
+  </si>
+  <si>
+    <t>Party Room</t>
+  </si>
+  <si>
+    <t>Ballroom</t>
+  </si>
+  <si>
+    <t>Party Tent</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Specialized Materials</t>
+  </si>
+  <si>
+    <t>Water and Soap</t>
+  </si>
+  <si>
+    <t>Hired Help</t>
+  </si>
+  <si>
+    <t>Special Equiment</t>
+  </si>
+  <si>
+    <t>Custom, Handmade</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Custom, Printed</t>
+  </si>
+  <si>
+    <t>Plain</t>
   </si>
 </sst>
 </file>
@@ -381,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -404,8 +476,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -469,8 +609,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -516,8 +674,51 @@
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="81">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -548,6 +749,15 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
@@ -577,6 +787,15 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,20 +1128,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ87"/>
+  <dimension ref="A1:AJ141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C118" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -1926,6 +2148,286 @@
         <v>15</v>
       </c>
     </row>
+    <row r="126" spans="4:10" ht="16" thickBot="1"/>
+    <row r="127" spans="4:10">
+      <c r="D127" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H127" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I127" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J127" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="4:10">
+      <c r="D128" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G128" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I128" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="J128" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10" ht="16" thickBot="1">
+      <c r="D129" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E129" s="25">
+        <v>1089</v>
+      </c>
+      <c r="F129" s="25">
+        <v>1061</v>
+      </c>
+      <c r="G129" s="25">
+        <v>1056</v>
+      </c>
+      <c r="H129" s="25">
+        <v>985</v>
+      </c>
+      <c r="I129" s="25">
+        <v>920</v>
+      </c>
+      <c r="J129" s="26">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="130" spans="4:10" ht="16" thickBot="1">
+      <c r="D130" s="17"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="29"/>
+    </row>
+    <row r="131" spans="4:10">
+      <c r="D131" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I131" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J131" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="4:10">
+      <c r="D132" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G132" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I132" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J132" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="4:10" ht="16" thickBot="1">
+      <c r="D133" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" s="25">
+        <v>18</v>
+      </c>
+      <c r="F133" s="25">
+        <v>42</v>
+      </c>
+      <c r="G133" s="25">
+        <v>28</v>
+      </c>
+      <c r="H133" s="25">
+        <v>100</v>
+      </c>
+      <c r="I133" s="25">
+        <v>131</v>
+      </c>
+      <c r="J133" s="26">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="134" spans="4:10" ht="16" thickBot="1">
+      <c r="D134" s="17"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="29"/>
+    </row>
+    <row r="135" spans="4:10">
+      <c r="D135" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E135" s="30"/>
+      <c r="F135" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H135" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I135" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J135" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="4:10">
+      <c r="D136" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E136" s="28"/>
+      <c r="F136" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G136" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I136" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J136" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="137" spans="4:10" ht="16" thickBot="1">
+      <c r="D137" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E137" s="31"/>
+      <c r="F137" s="25">
+        <v>4</v>
+      </c>
+      <c r="G137" s="25">
+        <v>21</v>
+      </c>
+      <c r="H137" s="25">
+        <v>22</v>
+      </c>
+      <c r="I137" s="25">
+        <v>32</v>
+      </c>
+      <c r="J137" s="26">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="4:10" ht="16" thickBot="1">
+      <c r="D138" s="17"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="29"/>
+    </row>
+    <row r="139" spans="4:10">
+      <c r="D139" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H139" s="30"/>
+      <c r="I139" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J139" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="4:10">
+      <c r="D140" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H140" s="28"/>
+      <c r="I140" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J140" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="4:10" ht="16" thickBot="1">
+      <c r="D141" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="25">
+        <v>2</v>
+      </c>
+      <c r="H141" s="31"/>
+      <c r="I141" s="25">
+        <v>24</v>
+      </c>
+      <c r="J141" s="26">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
